--- a/data/strategies/国君场内策略结果.xlsx
+++ b/data/strategies/国君场内策略结果.xlsx
@@ -18,17 +18,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="184">
   <si>
     <t>鹏华中证细分化工产业主题ETF</t>
   </si>
   <si>
+    <t>汇添富中证主要消费ETF</t>
+  </si>
+  <si>
     <t>南方中证申万有色金属ETF</t>
   </si>
   <si>
-    <t>汇添富中证主要消费ETF</t>
-  </si>
-  <si>
     <t>平安中证新能源汽车产业ETF</t>
   </si>
   <si>
@@ -62,73 +62,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>4.35%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>22.95%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>11.24%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>22.71%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>22.20%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>30.83%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>13.37%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>28.57%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>25.53%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>24.91%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>32.52%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -140,85 +137,85 @@
     <t>159870.OF</t>
   </si>
   <si>
+    <t>159928.OF</t>
+  </si>
+  <si>
     <t>512400.OF</t>
   </si>
   <si>
-    <t>159928.OF</t>
-  </si>
-  <si>
     <t>515700.OF</t>
   </si>
   <si>
-    <t>5.53%</t>
-  </si>
-  <si>
-    <t>-1.05%</t>
-  </si>
-  <si>
-    <t>-6.38%</t>
-  </si>
-  <si>
-    <t>17.16%</t>
-  </si>
-  <si>
-    <t>18.93%</t>
-  </si>
-  <si>
-    <t>15.51%</t>
-  </si>
-  <si>
-    <t>6.64%</t>
-  </si>
-  <si>
-    <t>47.36%</t>
-  </si>
-  <si>
-    <t>15.86%</t>
-  </si>
-  <si>
-    <t>11.38%</t>
-  </si>
-  <si>
-    <t>-3.53%</t>
-  </si>
-  <si>
-    <t>23.56%</t>
-  </si>
-  <si>
-    <t>21.99%</t>
-  </si>
-  <si>
-    <t>26.97%</t>
-  </si>
-  <si>
-    <t>17.49%</t>
-  </si>
-  <si>
-    <t>41.84%</t>
-  </si>
-  <si>
-    <t>23.07%</t>
-  </si>
-  <si>
-    <t>30.19%</t>
-  </si>
-  <si>
-    <t>21.78%</t>
-  </si>
-  <si>
-    <t>37.04%</t>
-  </si>
-  <si>
-    <t>33.36%</t>
-  </si>
-  <si>
-    <t>40.13%</t>
-  </si>
-  <si>
-    <t>30.15%</t>
-  </si>
-  <si>
-    <t>42.46%</t>
+    <t>6.83%</t>
+  </si>
+  <si>
+    <t>-9.79%</t>
+  </si>
+  <si>
+    <t>13.00%</t>
+  </si>
+  <si>
+    <t>27.72%</t>
+  </si>
+  <si>
+    <t>16.09%</t>
+  </si>
+  <si>
+    <t>-3.97%</t>
+  </si>
+  <si>
+    <t>24.35%</t>
+  </si>
+  <si>
+    <t>57.99%</t>
+  </si>
+  <si>
+    <t>21.19%</t>
+  </si>
+  <si>
+    <t>-9.62%</t>
+  </si>
+  <si>
+    <t>27.42%</t>
+  </si>
+  <si>
+    <t>43.99%</t>
+  </si>
+  <si>
+    <t>23.52%</t>
+  </si>
+  <si>
+    <t>19.24%</t>
+  </si>
+  <si>
+    <t>36.60%</t>
+  </si>
+  <si>
+    <t>39.73%</t>
+  </si>
+  <si>
+    <t>23.41%</t>
+  </si>
+  <si>
+    <t>21.47%</t>
+  </si>
+  <si>
+    <t>33.28%</t>
+  </si>
+  <si>
+    <t>37.61%</t>
+  </si>
+  <si>
+    <t>32.86%</t>
+  </si>
+  <si>
+    <t>29.76%</t>
+  </si>
+  <si>
+    <t>40.49%</t>
+  </si>
+  <si>
+    <t>42.17%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -233,301 +230,304 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>002594.SZ</t>
+  </si>
+  <si>
+    <t>300750.SZ</t>
+  </si>
+  <si>
+    <t>000858.SZ</t>
+  </si>
+  <si>
+    <t>600519.SH</t>
+  </si>
+  <si>
+    <t>600887.SH</t>
+  </si>
+  <si>
+    <t>000568.SZ</t>
+  </si>
+  <si>
+    <t>603288.SH</t>
+  </si>
+  <si>
+    <t>300014.SZ</t>
+  </si>
+  <si>
+    <t>002714.SZ</t>
+  </si>
+  <si>
+    <t>600309.SH</t>
+  </si>
+  <si>
+    <t>300124.SZ</t>
+  </si>
+  <si>
+    <t>600809.SH</t>
+  </si>
+  <si>
+    <t>002709.SZ</t>
   </si>
   <si>
     <t>002460.SZ</t>
   </si>
   <si>
-    <t>600519.SH</t>
-  </si>
-  <si>
-    <t>000858.SZ</t>
-  </si>
-  <si>
-    <t>300750.SZ</t>
-  </si>
-  <si>
     <t>603799.SH</t>
   </si>
   <si>
-    <t>300014.SZ</t>
-  </si>
-  <si>
-    <t>002812.SZ</t>
-  </si>
-  <si>
-    <t>600887.SH</t>
-  </si>
-  <si>
-    <t>000568.SZ</t>
-  </si>
-  <si>
-    <t>600309.SH</t>
-  </si>
-  <si>
-    <t>300124.SZ</t>
-  </si>
-  <si>
-    <t>603288.SH</t>
-  </si>
-  <si>
-    <t>002714.SZ</t>
-  </si>
-  <si>
-    <t>600809.SH</t>
-  </si>
-  <si>
-    <t>002709.SZ</t>
-  </si>
-  <si>
-    <t>002594.SZ</t>
-  </si>
-  <si>
-    <t>002340.SZ</t>
-  </si>
-  <si>
-    <t>601899.SH</t>
-  </si>
-  <si>
     <t>002304.SZ</t>
   </si>
   <si>
     <t>300450.SZ</t>
   </si>
   <si>
-    <t>4.30%</t>
-  </si>
-  <si>
-    <t>3.63%</t>
-  </si>
-  <si>
-    <t>3.46%</t>
-  </si>
-  <si>
-    <t>3.13%</t>
-  </si>
-  <si>
-    <t>3.11%</t>
-  </si>
-  <si>
-    <t>3.05%</t>
-  </si>
-  <si>
-    <t>3.01%</t>
-  </si>
-  <si>
-    <t>2.99%</t>
-  </si>
-  <si>
-    <t>2.51%</t>
-  </si>
-  <si>
-    <t>2.46%</t>
-  </si>
-  <si>
-    <t>2.19%</t>
-  </si>
-  <si>
-    <t>2.16%</t>
-  </si>
-  <si>
-    <t>2.08%</t>
-  </si>
-  <si>
-    <t>2.01%</t>
-  </si>
-  <si>
-    <t>1.92%</t>
-  </si>
-  <si>
-    <t>1.78%</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>1.64%</t>
-  </si>
-  <si>
-    <t>1.46%</t>
+    <t>002311.SZ</t>
+  </si>
+  <si>
+    <t>300037.SZ</t>
+  </si>
+  <si>
+    <t>396.27%</t>
+  </si>
+  <si>
+    <t>377.59%</t>
+  </si>
+  <si>
+    <t>375.80%</t>
+  </si>
+  <si>
+    <t>335.74%</t>
+  </si>
+  <si>
+    <t>319.41%</t>
+  </si>
+  <si>
+    <t>309.21%</t>
+  </si>
+  <si>
+    <t>238.52%</t>
+  </si>
+  <si>
+    <t>224.93%</t>
+  </si>
+  <si>
+    <t>223.38%</t>
+  </si>
+  <si>
+    <t>220.90%</t>
+  </si>
+  <si>
+    <t>218.59%</t>
+  </si>
+  <si>
+    <t>218.03%</t>
+  </si>
+  <si>
+    <t>215.56%</t>
+  </si>
+  <si>
+    <t>193.58%</t>
+  </si>
+  <si>
+    <t>184.77%</t>
+  </si>
+  <si>
+    <t>183.91%</t>
+  </si>
+  <si>
+    <t>172.39%</t>
+  </si>
+  <si>
+    <t>107.02%</t>
+  </si>
+  <si>
+    <t>93.55%</t>
+  </si>
+  <si>
+    <t>91.45%</t>
+  </si>
+  <si>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>伊利股份</t>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+  </si>
+  <si>
+    <t>海天味业</t>
+  </si>
+  <si>
+    <t>亿纬锂能</t>
+  </si>
+  <si>
+    <t>牧原股份</t>
+  </si>
+  <si>
+    <t>万华化学</t>
+  </si>
+  <si>
+    <t>汇川技术</t>
+  </si>
+  <si>
+    <t>山西汾酒</t>
+  </si>
+  <si>
+    <t>天赐材料</t>
   </si>
   <si>
     <t>赣锋锂业</t>
   </si>
   <si>
-    <t>贵州茅台</t>
-  </si>
-  <si>
-    <t>五粮液</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
-  </si>
-  <si>
     <t>华友钴业</t>
   </si>
   <si>
-    <t>亿纬锂能</t>
-  </si>
-  <si>
-    <t>恩捷股份</t>
-  </si>
-  <si>
-    <t>伊利股份</t>
-  </si>
-  <si>
-    <t>泸州老窖</t>
-  </si>
-  <si>
-    <t>万华化学</t>
-  </si>
-  <si>
-    <t>汇川技术</t>
-  </si>
-  <si>
-    <t>海天味业</t>
-  </si>
-  <si>
-    <t>牧原股份</t>
-  </si>
-  <si>
-    <t>山西汾酒</t>
-  </si>
-  <si>
-    <t>天赐材料</t>
-  </si>
-  <si>
-    <t>比亚迪</t>
-  </si>
-  <si>
-    <t>格林美</t>
-  </si>
-  <si>
-    <t>紫金矿业</t>
-  </si>
-  <si>
     <t>洋河股份</t>
   </si>
   <si>
     <t>先导智能</t>
   </si>
   <si>
+    <t>海大集团</t>
+  </si>
+  <si>
+    <t>新宙邦</t>
+  </si>
+  <si>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>酒类</t>
+  </si>
+  <si>
+    <t>茅台酒</t>
+  </si>
+  <si>
+    <t>液体乳</t>
+  </si>
+  <si>
+    <t>中高档酒类</t>
+  </si>
+  <si>
+    <t>酱油</t>
+  </si>
+  <si>
+    <t>锂离子电池</t>
+  </si>
+  <si>
+    <t>生猪</t>
+  </si>
+  <si>
+    <t>聚氨酯系列</t>
+  </si>
+  <si>
+    <t>变频器类</t>
+  </si>
+  <si>
+    <t>白酒</t>
+  </si>
+  <si>
+    <t>锂离子电池材料产品</t>
+  </si>
+  <si>
     <t>锂系列产品</t>
   </si>
   <si>
-    <t>茅台酒</t>
-  </si>
-  <si>
-    <t>酒类</t>
-  </si>
-  <si>
-    <t>动力电池系统</t>
-  </si>
-  <si>
     <t>其他</t>
   </si>
   <si>
-    <t>锂离子电池</t>
-  </si>
-  <si>
-    <t>膜类产品</t>
-  </si>
-  <si>
-    <t>液体乳</t>
-  </si>
-  <si>
-    <t>中高档酒类</t>
-  </si>
-  <si>
-    <t>聚氨酯系列</t>
-  </si>
-  <si>
-    <t>变频器类</t>
-  </si>
-  <si>
-    <t>酱油</t>
-  </si>
-  <si>
-    <t>生猪</t>
-  </si>
-  <si>
-    <t>白酒</t>
-  </si>
-  <si>
-    <t>锂离子电池材料产品</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>三元材料</t>
-  </si>
-  <si>
-    <t>加工、冶炼及贸易金</t>
-  </si>
-  <si>
     <t>锂电池设备</t>
   </si>
   <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>6.77%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>34.17%</t>
-  </si>
-  <si>
-    <t>61.61%</t>
-  </si>
-  <si>
-    <t>-13.35%</t>
-  </si>
-  <si>
-    <t>4.71%</t>
-  </si>
-  <si>
-    <t>20.10%</t>
-  </si>
-  <si>
-    <t>17.94%</t>
-  </si>
-  <si>
-    <t>-13.36%</t>
-  </si>
-  <si>
-    <t>18.14%</t>
-  </si>
-  <si>
-    <t>22.60%</t>
-  </si>
-  <si>
-    <t>76.18%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>37.76%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>-6.90%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
+    <t>饲料</t>
+  </si>
+  <si>
+    <t>锂离子电池电解液</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>-4.64%</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>-19.50%</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>-23.57%</t>
+  </si>
+  <si>
+    <t>62.80%</t>
+  </si>
+  <si>
+    <t>7.27%</t>
+  </si>
+  <si>
+    <t>41.34%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>19.71%</t>
+  </si>
+  <si>
+    <t>89.06%</t>
+  </si>
+  <si>
+    <t>65.23%</t>
+  </si>
+  <si>
+    <t>104.69%</t>
+  </si>
+  <si>
+    <t>-15.98%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>13.38%</t>
+  </si>
+  <si>
+    <t>37.99%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -536,10 +536,13 @@
     <t>标签占比</t>
   </si>
   <si>
+    <t>食品饮料</t>
+  </si>
+  <si>
     <t>锂电池</t>
   </si>
   <si>
-    <t>食品饮料</t>
+    <t>饲料养殖</t>
   </si>
   <si>
     <t xml:space="preserve">锂电池 </t>
@@ -548,37 +551,25 @@
     <t>化工</t>
   </si>
   <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>饲料养殖</t>
-  </si>
-  <si>
-    <t>有色金属</t>
-  </si>
-  <si>
-    <t>37.18%</t>
-  </si>
-  <si>
-    <t>36.39%</t>
-  </si>
-  <si>
-    <t>6.03%</t>
-  </si>
-  <si>
-    <t>4.86%</t>
-  </si>
-  <si>
-    <t>4.33%</t>
-  </si>
-  <si>
-    <t>4.11%</t>
-  </si>
-  <si>
-    <t>3.80%</t>
-  </si>
-  <si>
-    <t>3.30%</t>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>21.88%</t>
+  </si>
+  <si>
+    <t>18.47%</t>
+  </si>
+  <si>
+    <t>4.55%</t>
+  </si>
+  <si>
+    <t>3.79%</t>
+  </si>
+  <si>
+    <t>2.69%</t>
+  </si>
+  <si>
+    <t>2.63%</t>
   </si>
 </sst>
 </file>
@@ -942,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1008,16 +999,16 @@
         <v>1.02686009883611</v>
       </c>
       <c r="C3">
+        <v>1.039420956763494</v>
+      </c>
+      <c r="D3">
         <v>1.056768131545464</v>
-      </c>
-      <c r="D3">
-        <v>1.039420956763494</v>
       </c>
       <c r="E3">
         <v>1.07818653347421</v>
       </c>
       <c r="F3">
-        <v>1.05302727094331</v>
+        <v>1.055802818908425</v>
       </c>
       <c r="G3">
         <v>1.018168368380631</v>
@@ -1034,16 +1025,16 @@
         <v>1.061330056224159</v>
       </c>
       <c r="C4">
+        <v>1.092186751030582</v>
+      </c>
+      <c r="D4">
         <v>1.068219633943428</v>
-      </c>
-      <c r="D4">
-        <v>1.092186751030582</v>
       </c>
       <c r="E4">
         <v>1.091441744308904</v>
       </c>
       <c r="F4">
-        <v>1.08262085079052</v>
+        <v>1.078786112056576</v>
       </c>
       <c r="G4">
         <v>1.027111201157197</v>
@@ -1060,16 +1051,16 @@
         <v>1.068998328826082</v>
       </c>
       <c r="C5">
+        <v>1.100853225961078</v>
+      </c>
+      <c r="D5">
         <v>1.073407066653616</v>
-      </c>
-      <c r="D5">
-        <v>1.100853225961078</v>
       </c>
       <c r="E5">
         <v>1.079195082124676</v>
       </c>
       <c r="F5">
-        <v>1.083624858899848</v>
+        <v>1.079233473410654</v>
       </c>
       <c r="G5">
         <v>1.025290909062353</v>
@@ -1086,16 +1077,16 @@
         <v>1.104638764970133</v>
       </c>
       <c r="C6">
+        <v>1.115156744319816</v>
+      </c>
+      <c r="D6">
         <v>1.115102280512871</v>
-      </c>
-      <c r="D6">
-        <v>1.115156744319816</v>
       </c>
       <c r="E6">
         <v>1.111756795696859</v>
       </c>
       <c r="F6">
-        <v>1.112237445937613</v>
+        <v>1.112228731728502</v>
       </c>
       <c r="G6">
         <v>1.026858339183711</v>
@@ -1112,16 +1103,16 @@
         <v>1.101586266493641</v>
       </c>
       <c r="C7">
+        <v>1.084306394401304</v>
+      </c>
+      <c r="D7">
         <v>1.111187236958011</v>
-      </c>
-      <c r="D7">
-        <v>1.084306394401304</v>
       </c>
       <c r="E7">
         <v>1.098261454231102</v>
       </c>
       <c r="F7">
-        <v>1.096418885635475</v>
+        <v>1.100719820444548</v>
       </c>
       <c r="G7">
         <v>1.029917812005761</v>
@@ -1138,16 +1129,16 @@
         <v>1.089209983403007</v>
       </c>
       <c r="C8">
+        <v>1.04889272361231</v>
+      </c>
+      <c r="D8">
         <v>1.063717333855339</v>
-      </c>
-      <c r="D8">
-        <v>1.04889272361231</v>
       </c>
       <c r="E8">
         <v>1.055998463163961</v>
       </c>
       <c r="F8">
-        <v>1.060611735570088</v>
+        <v>1.062983673208973</v>
       </c>
       <c r="G8">
         <v>1.013866573688848</v>
@@ -1164,16 +1155,16 @@
         <v>1.110335048647452</v>
       </c>
       <c r="C9">
+        <v>1.072265362860704</v>
+      </c>
+      <c r="D9">
         <v>1.08808847998434</v>
-      </c>
-      <c r="D9">
-        <v>1.072265362860704</v>
       </c>
       <c r="E9">
         <v>1.083181250600327</v>
       </c>
       <c r="F9">
-        <v>1.085029382309545</v>
+        <v>1.087561081049327</v>
       </c>
       <c r="G9">
         <v>1.027660901099557</v>
@@ -1190,16 +1181,16 @@
         <v>1.110259492098048</v>
       </c>
       <c r="C10">
+        <v>1.060147636851692</v>
+      </c>
+      <c r="D10">
         <v>1.05392972496819</v>
-      </c>
-      <c r="D10">
-        <v>1.060147636851692</v>
       </c>
       <c r="E10">
         <v>1.045961002785516</v>
       </c>
       <c r="F10">
-        <v>1.062928017981539</v>
+        <v>1.061933152080179</v>
       </c>
       <c r="G10">
         <v>1.020386015005238</v>
@@ -1216,16 +1207,16 @@
         <v>1.087347257669719</v>
       </c>
       <c r="C11">
+        <v>1.033074489502445</v>
+      </c>
+      <c r="D11">
         <v>1.032984241949692</v>
-      </c>
-      <c r="D11">
-        <v>1.033074489502445</v>
       </c>
       <c r="E11">
         <v>1.018345980213236</v>
       </c>
       <c r="F11">
-        <v>1.037425109941474</v>
+        <v>1.037410670333034</v>
       </c>
       <c r="G11">
         <v>1.011430617658561</v>
@@ -1242,16 +1233,16 @@
         <v>1.091761509106276</v>
       </c>
       <c r="C12">
+        <v>1.012616240053686</v>
+      </c>
+      <c r="D12">
         <v>1.043750611725555</v>
-      </c>
-      <c r="D12">
-        <v>1.012616240053686</v>
       </c>
       <c r="E12">
         <v>1.040678128902123</v>
       </c>
       <c r="F12">
-        <v>1.040624202296828</v>
+        <v>1.045605701764328</v>
       </c>
       <c r="G12">
         <v>1.007914108598721</v>
@@ -1268,16 +1259,16 @@
         <v>1.137076676849913</v>
       </c>
       <c r="C13">
+        <v>1.010622183874988</v>
+      </c>
+      <c r="D13">
         <v>1.059508662033865</v>
-      </c>
-      <c r="D13">
-        <v>1.010622183874988</v>
       </c>
       <c r="E13">
         <v>1.050859667659207</v>
       </c>
       <c r="F13">
-        <v>1.053708518616526</v>
+        <v>1.061530355121947</v>
       </c>
       <c r="G13">
         <v>1.023142367573358</v>
@@ -1294,16 +1285,16 @@
         <v>1.121004392227605</v>
       </c>
       <c r="C14">
+        <v>0.9903556705972582</v>
+      </c>
+      <c r="D14">
         <v>1.022413624351571</v>
-      </c>
-      <c r="D14">
-        <v>0.9903556705972582</v>
       </c>
       <c r="E14">
         <v>1.02165978292191</v>
       </c>
       <c r="F14">
-        <v>1.028346162479785</v>
+        <v>1.033475435080475</v>
       </c>
       <c r="G14">
         <v>1.017160061629216</v>
@@ -1320,16 +1311,16 @@
         <v>1.139172989380303</v>
       </c>
       <c r="C15">
+        <v>0.9969322212635414</v>
+      </c>
+      <c r="D15">
         <v>1.053146716257218</v>
-      </c>
-      <c r="D15">
-        <v>0.9969322212635414</v>
       </c>
       <c r="E15">
         <v>1.069685909134569</v>
       </c>
       <c r="F15">
-        <v>1.054678332989755</v>
+        <v>1.063672652188743</v>
       </c>
       <c r="G15">
         <v>1.026434284942462</v>
@@ -1346,16 +1337,16 @@
         <v>1.171715167447518</v>
       </c>
       <c r="C16">
+        <v>1.018962707314735</v>
+      </c>
+      <c r="D16">
         <v>1.090535382206127</v>
-      </c>
-      <c r="D16">
-        <v>1.018962707314735</v>
       </c>
       <c r="E16">
         <v>1.099029872250505</v>
       </c>
       <c r="F16">
-        <v>1.083520144697649</v>
+        <v>1.094971772680271</v>
       </c>
       <c r="G16">
         <v>1.04011081950838</v>
@@ -1372,16 +1363,16 @@
         <v>1.189923116005769</v>
       </c>
       <c r="C17">
+        <v>1.017850637522769</v>
+      </c>
+      <c r="D17">
         <v>1.10061661935989</v>
-      </c>
-      <c r="D17">
-        <v>1.017850637522769</v>
       </c>
       <c r="E17">
         <v>1.13019882816252</v>
       </c>
       <c r="F17">
-        <v>1.098248078688308</v>
+        <v>1.111490635782247</v>
       </c>
       <c r="G17">
         <v>1.042515364113389</v>
@@ -1398,16 +1389,16 @@
         <v>1.200397044346235</v>
       </c>
       <c r="C18">
+        <v>1.056293739814016</v>
+      </c>
+      <c r="D18">
         <v>1.116178917490457</v>
-      </c>
-      <c r="D18">
-        <v>1.056293739814016</v>
       </c>
       <c r="E18">
         <v>1.1354336759197</v>
       </c>
       <c r="F18">
-        <v>1.117087960704364</v>
+        <v>1.126669589132595</v>
       </c>
       <c r="G18">
         <v>1.043693292561303</v>
@@ -1424,16 +1415,16 @@
         <v>1.176236507453332</v>
       </c>
       <c r="C19">
+        <v>1.047569744032212</v>
+      </c>
+      <c r="D19">
         <v>1.09601644318293</v>
-      </c>
-      <c r="D19">
-        <v>1.047569744032212</v>
       </c>
       <c r="E19">
         <v>1.107674574968783</v>
       </c>
       <c r="F19">
-        <v>1.097513626878493</v>
+        <v>1.105265098742608</v>
       </c>
       <c r="G19">
         <v>1.026047924411546</v>
@@ -1450,16 +1441,16 @@
         <v>1.179505797241663</v>
       </c>
       <c r="C20">
+        <v>1.038577317610967</v>
+      </c>
+      <c r="D20">
         <v>1.089262993050798</v>
-      </c>
-      <c r="D20">
-        <v>1.038577317610967</v>
       </c>
       <c r="E20">
         <v>1.120785707424839</v>
       </c>
       <c r="F20">
-        <v>1.098280492611535</v>
+        <v>1.106390200681907</v>
       </c>
       <c r="G20">
         <v>1.02984870687015</v>
@@ -1476,16 +1467,16 @@
         <v>1.129671695457043</v>
       </c>
       <c r="C21">
+        <v>1.019384526890998</v>
+      </c>
+      <c r="D21">
         <v>1.049133796613487</v>
-      </c>
-      <c r="D21">
-        <v>1.019384526890998</v>
       </c>
       <c r="E21">
         <v>1.073191816348093</v>
       </c>
       <c r="F21">
-        <v>1.06094712692089</v>
+        <v>1.065707010076489</v>
       </c>
       <c r="G21">
         <v>1.007424090364388</v>
@@ -1502,16 +1493,16 @@
         <v>1.126820881609365</v>
       </c>
       <c r="C22">
+        <v>1.017716422203049</v>
+      </c>
+      <c r="D22">
         <v>1.036312028971322</v>
-      </c>
-      <c r="D22">
-        <v>1.017716422203049</v>
       </c>
       <c r="E22">
         <v>1.052300451445586</v>
       </c>
       <c r="F22">
-        <v>1.050838163102767</v>
+        <v>1.05381346018569</v>
       </c>
       <c r="G22">
         <v>0.9967065120596316</v>
@@ -1528,16 +1519,16 @@
         <v>1.181885967353556</v>
       </c>
       <c r="C23">
+        <v>1.020975937110536</v>
+      </c>
+      <c r="D23">
         <v>1.048155035724772</v>
-      </c>
-      <c r="D23">
-        <v>1.020975937110536</v>
       </c>
       <c r="E23">
         <v>1.048554413600999</v>
       </c>
       <c r="F23">
-        <v>1.062051986258123</v>
+        <v>1.0664006420364</v>
       </c>
       <c r="G23">
         <v>1.004110184997589</v>
@@ -1554,16 +1545,16 @@
         <v>1.211941835244988</v>
       </c>
       <c r="C24">
+        <v>1.052324801073723</v>
+      </c>
+      <c r="D24">
         <v>1.078790251541548</v>
-      </c>
-      <c r="D24">
-        <v>1.052324801073723</v>
       </c>
       <c r="E24">
         <v>1.10436077226011</v>
       </c>
       <c r="F24">
-        <v>1.101130693953876</v>
+        <v>1.105365166028728</v>
       </c>
       <c r="G24">
         <v>1.013770768841751</v>
@@ -1580,16 +1571,16 @@
         <v>1.205280296984896</v>
       </c>
       <c r="C25">
+        <v>1.058441184929537</v>
+      </c>
+      <c r="D25">
         <v>1.084564940784966</v>
-      </c>
-      <c r="D25">
-        <v>1.058441184929537</v>
       </c>
       <c r="E25">
         <v>1.104120641629046</v>
       </c>
       <c r="F25">
-        <v>1.102919093185209</v>
+        <v>1.107098894122078</v>
       </c>
       <c r="G25">
         <v>1.00506038061224</v>
@@ -1606,16 +1597,16 @@
         <v>1.21061140609628</v>
       </c>
       <c r="C26">
+        <v>1.061355574729173</v>
+      </c>
+      <c r="D26">
         <v>1.040227072526182</v>
-      </c>
-      <c r="D26">
-        <v>1.061355574729173</v>
       </c>
       <c r="E26">
         <v>1.0789069253674</v>
       </c>
       <c r="F26">
-        <v>1.088929166397687</v>
+        <v>1.085548606045209</v>
       </c>
       <c r="G26">
         <v>0.9939815709167896</v>
@@ -1632,16 +1623,16 @@
         <v>1.151182085222883</v>
       </c>
       <c r="C27">
+        <v>1.071134119451635</v>
+      </c>
+      <c r="D27">
         <v>0.9885484976020358</v>
-      </c>
-      <c r="D27">
-        <v>1.071134119451635</v>
       </c>
       <c r="E27">
         <v>1.040774181154548</v>
       </c>
       <c r="F27">
-        <v>1.060683938280277</v>
+        <v>1.047470238784341</v>
       </c>
       <c r="G27">
         <v>0.9800160512383169</v>
@@ -1658,16 +1649,16 @@
         <v>1.210158552619677</v>
       </c>
       <c r="C28">
+        <v>1.092436008052919</v>
+      </c>
+      <c r="D28">
         <v>1.028873446217089</v>
-      </c>
-      <c r="D28">
-        <v>1.092436008052919</v>
       </c>
       <c r="E28">
         <v>1.066420132552108</v>
       </c>
       <c r="F28">
-        <v>1.09305796620191</v>
+        <v>1.082887956308177</v>
       </c>
       <c r="G28">
         <v>0.9930973392952219</v>
@@ -1684,16 +1675,16 @@
         <v>1.265070188703061</v>
       </c>
       <c r="C29">
+        <v>1.118895599654875</v>
+      </c>
+      <c r="D29">
         <v>1.080062640696878</v>
-      </c>
-      <c r="D29">
-        <v>1.118895599654875</v>
       </c>
       <c r="E29">
         <v>1.100374603784459</v>
       </c>
       <c r="F29">
-        <v>1.13103174813297</v>
+        <v>1.12481847469969</v>
       </c>
       <c r="G29">
         <v>1.014256075362292</v>
@@ -1710,16 +1701,16 @@
         <v>1.293885689187007</v>
       </c>
       <c r="C30">
+        <v>1.157530438117151</v>
+      </c>
+      <c r="D30">
         <v>1.108936086913967</v>
-      </c>
-      <c r="D30">
-        <v>1.157530438117151</v>
       </c>
       <c r="E30">
         <v>1.116319277687062</v>
       </c>
       <c r="F30">
-        <v>1.158850108152556</v>
+        <v>1.151075011960046</v>
       </c>
       <c r="G30">
         <v>1.024824449396979</v>
@@ -1736,16 +1727,16 @@
         <v>1.3124880540376</v>
       </c>
       <c r="C31">
+        <v>1.122423545201802</v>
+      </c>
+      <c r="D31">
         <v>1.181070764412254</v>
-      </c>
-      <c r="D31">
-        <v>1.122423545201802</v>
       </c>
       <c r="E31">
         <v>1.101239074056287</v>
       </c>
       <c r="F31">
-        <v>1.157713663491645</v>
+        <v>1.167097218565317</v>
       </c>
       <c r="G31">
         <v>1.038860644782327</v>
@@ -1762,16 +1753,16 @@
         <v>1.281372034758234</v>
       </c>
       <c r="C32">
+        <v>1.140101620170645</v>
+      </c>
+      <c r="D32">
         <v>1.197513947342664</v>
-      </c>
-      <c r="D32">
-        <v>1.140101620170645</v>
       </c>
       <c r="E32">
         <v>1.07674574968783</v>
       </c>
       <c r="F32">
-        <v>1.15297024901045</v>
+        <v>1.162156221357973</v>
       </c>
       <c r="G32">
         <v>1.052829305603327</v>
@@ -1788,16 +1779,16 @@
         <v>1.276114446379858</v>
       </c>
       <c r="C33">
+        <v>1.086760617390471</v>
+      </c>
+      <c r="D33">
         <v>1.254477831065871</v>
-      </c>
-      <c r="D33">
-        <v>1.086760617390471</v>
       </c>
       <c r="E33">
         <v>1.056910959562002</v>
       </c>
       <c r="F33">
-        <v>1.13761230756009</v>
+        <v>1.164447061748154</v>
       </c>
       <c r="G33">
         <v>1.045538713796369</v>
@@ -1814,16 +1805,16 @@
         <v>1.245324018918102</v>
       </c>
       <c r="C34">
+        <v>1.075927523727351</v>
+      </c>
+      <c r="D34">
         <v>1.237055887246746</v>
-      </c>
-      <c r="D34">
-        <v>1.075927523727351</v>
       </c>
       <c r="E34">
         <v>1.033618288348862</v>
       </c>
       <c r="F34">
-        <v>1.118154702033174</v>
+        <v>1.143935240196277</v>
       </c>
       <c r="G34">
         <v>1.041481928221752</v>
@@ -1840,16 +1831,16 @@
         <v>1.194330751039041</v>
       </c>
       <c r="C35">
+        <v>1.036755823986195</v>
+      </c>
+      <c r="D35">
         <v>1.182343153567583</v>
-      </c>
-      <c r="D35">
-        <v>1.036755823986195</v>
       </c>
       <c r="E35">
         <v>0.9825665161848046</v>
       </c>
       <c r="F35">
-        <v>1.070410936039556</v>
+        <v>1.093704908772578</v>
       </c>
       <c r="G35">
         <v>1.026555218929781</v>
@@ -1866,16 +1857,16 @@
         <v>1.194601190739756</v>
       </c>
       <c r="C36">
+        <v>1.026095292877001</v>
+      </c>
+      <c r="D36">
         <v>1.168934129392189</v>
-      </c>
-      <c r="D36">
-        <v>1.026095292877001</v>
       </c>
       <c r="E36">
         <v>0.9625396215541255</v>
       </c>
       <c r="F36">
-        <v>1.058050526184703</v>
+        <v>1.080904740027133</v>
       </c>
       <c r="G36">
         <v>1.020737822968348</v>
@@ -1892,16 +1883,16 @@
         <v>1.159340827636171</v>
       </c>
       <c r="C37">
+        <v>0.9980251174384047</v>
+      </c>
+      <c r="D37">
         <v>1.116766174023686</v>
-      </c>
-      <c r="D37">
-        <v>0.9980251174384047</v>
       </c>
       <c r="E37">
         <v>0.9374699836711171</v>
       </c>
       <c r="F37">
-        <v>1.025651573648318</v>
+        <v>1.044650142701963</v>
       </c>
       <c r="G37">
         <v>0.9995665223311676</v>
@@ -1918,16 +1909,16 @@
         <v>1.190366715771483</v>
       </c>
       <c r="C38">
+        <v>1.009395072380405</v>
+      </c>
+      <c r="D38">
         <v>1.158069883527454</v>
-      </c>
-      <c r="D38">
-        <v>1.009395072380405</v>
       </c>
       <c r="E38">
         <v>0.980981654019787</v>
       </c>
       <c r="F38">
-        <v>1.056058541592883</v>
+        <v>1.079846511376411</v>
       </c>
       <c r="G38">
         <v>1.019055741144727</v>
@@ -1944,16 +1935,16 @@
         <v>1.162769466326001</v>
       </c>
       <c r="C39">
+        <v>0.9887067395264117</v>
+      </c>
+      <c r="D39">
         <v>1.119213076245473</v>
-      </c>
-      <c r="D39">
-        <v>0.9887067395264117</v>
       </c>
       <c r="E39">
         <v>0.9807415233887236</v>
       </c>
       <c r="F39">
-        <v>1.037854958999145</v>
+        <v>1.058735972874195</v>
       </c>
       <c r="G39">
         <v>1.010400322909452</v>
@@ -1970,16 +1961,16 @@
         <v>1.170250328148155</v>
       </c>
       <c r="C40">
+        <v>1.001974882561595</v>
+      </c>
+      <c r="D40">
         <v>1.160908290104727</v>
-      </c>
-      <c r="D40">
-        <v>1.001974882561595</v>
       </c>
       <c r="E40">
         <v>0.9912112189030833</v>
       </c>
       <c r="F40">
-        <v>1.054048378586334</v>
+        <v>1.079477723793235</v>
       </c>
       <c r="G40">
         <v>1.024758485403896</v>
@@ -1996,16 +1987,16 @@
         <v>1.115512939440801</v>
       </c>
       <c r="C41">
+        <v>0.9587958968459401</v>
+      </c>
+      <c r="D41">
         <v>1.115395908779485</v>
-      </c>
-      <c r="D41">
-        <v>0.9587958968459401</v>
       </c>
       <c r="E41">
         <v>0.9335798674478917</v>
       </c>
       <c r="F41">
-        <v>1.003738506414413</v>
+        <v>1.02879450832378</v>
       </c>
       <c r="G41">
         <v>1.005478152568434</v>
@@ -2022,16 +2013,16 @@
         <v>1.109189416105186</v>
       </c>
       <c r="C42">
+        <v>0.9585849870578086</v>
+      </c>
+      <c r="D42">
         <v>1.077713614563962</v>
-      </c>
-      <c r="D42">
-        <v>0.9585849870578086</v>
       </c>
       <c r="E42">
         <v>0.9333397368168285</v>
       </c>
       <c r="F42">
-        <v>0.9961086740923855</v>
+        <v>1.01516925449337</v>
       </c>
       <c r="G42">
         <v>1.005715308829281</v>
@@ -2048,16 +2039,16 @@
         <v>1.07910777662893</v>
       </c>
       <c r="C43">
+        <v>0.908407631099607</v>
+      </c>
+      <c r="D43">
         <v>1.047861407458158</v>
-      </c>
-      <c r="D43">
-        <v>0.908407631099607</v>
       </c>
       <c r="E43">
         <v>0.8843050619537028</v>
       </c>
       <c r="F43">
-        <v>0.9531799500023972</v>
+        <v>0.9754925542197653</v>
       </c>
       <c r="G43">
         <v>0.9826137761087841</v>
@@ -2074,16 +2065,16 @@
         <v>1.035259831015209</v>
       </c>
       <c r="C44">
+        <v>0.8819863867318569</v>
+      </c>
+      <c r="D44">
         <v>1.030733091905647</v>
-      </c>
-      <c r="D44">
-        <v>0.8819863867318569</v>
       </c>
       <c r="E44">
         <v>0.8690807799442898</v>
       </c>
       <c r="F44">
-        <v>0.9290709618996742</v>
+        <v>0.9528704347274806</v>
       </c>
       <c r="G44">
         <v>0.9593049279814547</v>
@@ -2100,16 +2091,16 @@
         <v>1.047741675812803</v>
       </c>
       <c r="C45">
+        <v>0.8959256063656409</v>
+      </c>
+      <c r="D45">
         <v>1.029852207105804</v>
-      </c>
-      <c r="D45">
-        <v>0.8959256063656409</v>
       </c>
       <c r="E45">
         <v>0.890500432235136</v>
       </c>
       <c r="F45">
-        <v>0.9427115528344197</v>
+        <v>0.9641398089528458</v>
       </c>
       <c r="G45">
         <v>0.952121135020441</v>
@@ -2126,16 +2117,16 @@
         <v>1.075413440765215</v>
       </c>
       <c r="C46">
+        <v>0.9207554405138531</v>
+      </c>
+      <c r="D46">
         <v>1.093080160516786</v>
-      </c>
-      <c r="D46">
-        <v>0.9207554405138531</v>
       </c>
       <c r="E46">
         <v>0.9168187493996736</v>
       </c>
       <c r="F46">
-        <v>0.9750433948894039</v>
+        <v>1.002615350089873</v>
       </c>
       <c r="G46">
         <v>0.9759262836671583</v>
@@ -2152,16 +2143,16 @@
         <v>1.09597699083295</v>
       </c>
       <c r="C47">
+        <v>0.919892627744224</v>
+      </c>
+      <c r="D47">
         <v>1.080160516785749</v>
-      </c>
-      <c r="D47">
-        <v>0.919892627744224</v>
       </c>
       <c r="E47">
         <v>0.9207568917491116</v>
       </c>
       <c r="F47">
-        <v>0.9773577177279796</v>
+        <v>1.003000579974624</v>
       </c>
       <c r="G47">
         <v>0.9772691220977807</v>
@@ -2178,16 +2169,16 @@
         <v>1.065170022362981</v>
       </c>
       <c r="C48">
+        <v>0.885859457386636</v>
+      </c>
+      <c r="D48">
         <v>1.082411666829794</v>
-      </c>
-      <c r="D48">
-        <v>0.885859457386636</v>
       </c>
       <c r="E48">
         <v>0.8923734511574297</v>
       </c>
       <c r="F48">
-        <v>0.9519057469823133</v>
+        <v>0.9833541004932185</v>
       </c>
       <c r="G48">
         <v>0.9696502808966706</v>
@@ -2204,16 +2195,16 @@
         <v>1.076751110942694</v>
       </c>
       <c r="C49">
+        <v>0.9008340523439747</v>
+      </c>
+      <c r="D49">
         <v>1.059704414211608</v>
-      </c>
-      <c r="D49">
-        <v>0.9008340523439747</v>
       </c>
       <c r="E49">
         <v>0.894870809720488</v>
       </c>
       <c r="F49">
-        <v>0.955780043757504</v>
+        <v>0.9811993016563254</v>
       </c>
       <c r="G49">
         <v>0.9730065916875945</v>
@@ -2230,16 +2221,16 @@
         <v>1.089631327994035</v>
       </c>
       <c r="C50">
+        <v>0.9171316268814111</v>
+      </c>
+      <c r="D50">
         <v>1.065576979543897</v>
-      </c>
-      <c r="D50">
-        <v>0.9171316268814111</v>
       </c>
       <c r="E50">
         <v>0.9174430890404381</v>
       </c>
       <c r="F50">
-        <v>0.9717950685356589</v>
+        <v>0.9955463249616566</v>
       </c>
       <c r="G50">
         <v>0.9777371523344186</v>
@@ -2256,16 +2247,16 @@
         <v>1.112576575035959</v>
       </c>
       <c r="C51">
+        <v>0.9340044099319337</v>
+      </c>
+      <c r="D51">
         <v>1.065674855632769</v>
-      </c>
-      <c r="D51">
-        <v>0.9340044099319337</v>
       </c>
       <c r="E51">
         <v>0.9207568917491116</v>
       </c>
       <c r="F51">
-        <v>0.9823739727684286</v>
+        <v>1.003441244080562</v>
       </c>
       <c r="G51">
         <v>0.9853544229642648</v>
@@ -2282,16 +2273,16 @@
         <v>1.070850574731789</v>
       </c>
       <c r="C52">
+        <v>0.9085034991851213</v>
+      </c>
+      <c r="D52">
         <v>1.042869726925712</v>
-      </c>
-      <c r="D52">
-        <v>0.9085034991851213</v>
       </c>
       <c r="E52">
         <v>0.8901162232254347</v>
       </c>
       <c r="F52">
-        <v>0.9528769596772588</v>
+        <v>0.9743755561157532</v>
       </c>
       <c r="G52">
         <v>0.9747907606433689</v>
@@ -2308,16 +2299,16 @@
         <v>1.060214128093845</v>
       </c>
       <c r="C53">
+        <v>0.9120506183491517</v>
+      </c>
+      <c r="D53">
         <v>1.046491142213957</v>
-      </c>
-      <c r="D53">
-        <v>0.9120506183491517</v>
       </c>
       <c r="E53">
         <v>0.9013543367591971</v>
       </c>
       <c r="F53">
-        <v>0.9565635311380816</v>
+        <v>0.9780740149564504</v>
       </c>
       <c r="G53">
         <v>0.9903535512972134</v>
@@ -2334,16 +2325,16 @@
         <v>1.020175449433074</v>
       </c>
       <c r="C54">
+        <v>0.9101716038730707</v>
+      </c>
+      <c r="D54">
         <v>1.005970441421161</v>
-      </c>
-      <c r="D54">
-        <v>0.9101716038730707</v>
       </c>
       <c r="E54">
         <v>0.8681682835462493</v>
       </c>
       <c r="F54">
-        <v>0.9312969642935955</v>
+        <v>0.94662477830129</v>
       </c>
       <c r="G54">
         <v>0.9767649687220733</v>
@@ -2360,16 +2351,16 @@
         <v>0.9741431653641376</v>
       </c>
       <c r="C55">
+        <v>0.9046879493816509</v>
+      </c>
+      <c r="D55">
         <v>0.9642752275619065</v>
-      </c>
-      <c r="D55">
-        <v>0.9046879493816509</v>
       </c>
       <c r="E55">
         <v>0.8384881375468255</v>
       </c>
       <c r="F55">
-        <v>0.9047792354838247</v>
+        <v>0.9143131999926657</v>
       </c>
       <c r="G55">
         <v>0.9647296811269164</v>
@@ -2386,16 +2377,16 @@
         <v>0.9976130746791589</v>
       </c>
       <c r="C56">
+        <v>0.903115712779216</v>
+      </c>
+      <c r="D56">
         <v>0.9700499168053244</v>
-      </c>
-      <c r="D56">
-        <v>0.903115712779216</v>
       </c>
       <c r="E56">
         <v>0.8523676880222841</v>
       </c>
       <c r="F56">
-        <v>0.9138122308168573</v>
+        <v>0.9245217034610346</v>
       </c>
       <c r="G56">
         <v>0.9670651205963146</v>
@@ -2412,16 +2403,16 @@
         <v>1.017505938915977</v>
       </c>
       <c r="C57">
+        <v>0.92347809414246</v>
+      </c>
+      <c r="D57">
         <v>1.003132034843887</v>
-      </c>
-      <c r="D57">
-        <v>0.92347809414246</v>
       </c>
       <c r="E57">
         <v>0.8949188358467006</v>
       </c>
       <c r="F57">
-        <v>0.9435794424355999</v>
+        <v>0.9563240729478284</v>
       </c>
       <c r="G57">
         <v>0.9818881721848689</v>
@@ -2438,16 +2429,16 @@
         <v>1.029999165777963</v>
       </c>
       <c r="C58">
+        <v>0.930955804812578</v>
+      </c>
+      <c r="D58">
         <v>1</v>
-      </c>
-      <c r="D58">
-        <v>0.930955804812578</v>
       </c>
       <c r="E58">
         <v>0.8840169051964269</v>
       </c>
       <c r="F58">
-        <v>0.9440408524852255</v>
+        <v>0.955087923715213</v>
       </c>
       <c r="G58">
         <v>0.9823829021329928</v>
@@ -2464,16 +2455,16 @@
         <v>1.045284792437646</v>
       </c>
       <c r="C59">
+        <v>0.9403700508100853</v>
+      </c>
+      <c r="D59">
         <v>1.01380052853088</v>
-      </c>
-      <c r="D59">
-        <v>0.9403700508100853</v>
       </c>
       <c r="E59">
         <v>0.8964076457592931</v>
       </c>
       <c r="F59">
-        <v>0.9561811444325443</v>
+        <v>0.9679300208678714</v>
       </c>
       <c r="G59">
         <v>0.9863752942857905</v>
@@ -2490,16 +2481,16 @@
         <v>1.023160511491466</v>
       </c>
       <c r="C60">
+        <v>0.9306682005560351</v>
+      </c>
+      <c r="D60">
         <v>0.9898208867573652</v>
-      </c>
-      <c r="D60">
-        <v>0.9306682005560351</v>
       </c>
       <c r="E60">
         <v>0.883872826817789</v>
       </c>
       <c r="F60">
-        <v>0.9410053767356634</v>
+        <v>0.9504698065278763</v>
       </c>
       <c r="G60">
         <v>0.9822462624330348</v>
@@ -2516,16 +2507,16 @@
         <v>1.041828415749427</v>
       </c>
       <c r="C61">
+        <v>0.9459303997699168</v>
+      </c>
+      <c r="D61">
         <v>0.9985318586669276</v>
-      </c>
-      <c r="D61">
-        <v>0.9459303997699168</v>
       </c>
       <c r="E61">
         <v>0.9008260493708578</v>
       </c>
       <c r="F61">
-        <v>0.956290874867236</v>
+        <v>0.9647071082907577</v>
       </c>
       <c r="G61">
         <v>0.9912911823417532</v>
@@ -2542,16 +2533,16 @@
         <v>1.048781214559733</v>
       </c>
       <c r="C62">
+        <v>0.9727926373310326</v>
+      </c>
+      <c r="D62">
         <v>1.007047078398747</v>
-      </c>
-      <c r="D62">
-        <v>0.9727926373310326</v>
       </c>
       <c r="E62">
         <v>0.913937181826914</v>
       </c>
       <c r="F62">
-        <v>0.9721116501250641</v>
+        <v>0.9775923606958984</v>
       </c>
       <c r="G62">
         <v>0.9936391863812625</v>
@@ -2568,16 +2559,16 @@
         <v>1.043656648275379</v>
       </c>
       <c r="C63">
+        <v>0.964260377720257</v>
+      </c>
+      <c r="D63">
         <v>1.012528139375551</v>
-      </c>
-      <c r="D63">
-        <v>0.964260377720257</v>
       </c>
       <c r="E63">
         <v>0.9183075593122659</v>
       </c>
       <c r="F63">
-        <v>0.9707988331213906</v>
+        <v>0.9785216749862375</v>
       </c>
       <c r="G63">
         <v>0.9962290583954103</v>
@@ -2594,16 +2585,16 @@
         <v>1.04392928573243</v>
       </c>
       <c r="C64">
+        <v>0.9411369954942</v>
+      </c>
+      <c r="D64">
         <v>1.024664774395615</v>
-      </c>
-      <c r="D64">
-        <v>0.9411369954942</v>
       </c>
       <c r="E64">
         <v>0.911391797137643</v>
       </c>
       <c r="F64">
-        <v>0.9629954917902759</v>
+        <v>0.9763599364145024</v>
       </c>
       <c r="G64">
         <v>0.9970112028848254</v>
@@ -2620,16 +2611,16 @@
         <v>1.049096835503861</v>
       </c>
       <c r="C65">
+        <v>0.9526028185217142</v>
+      </c>
+      <c r="D65">
         <v>1.037584418126652</v>
-      </c>
-      <c r="D65">
-        <v>0.9526028185217142</v>
       </c>
       <c r="E65">
         <v>0.9065411583901642</v>
       </c>
       <c r="F65">
-        <v>0.9682533254981071</v>
+        <v>0.9818503814348971</v>
       </c>
       <c r="G65">
         <v>0.9983728881706143</v>
@@ -2646,16 +2637,16 @@
         <v>1.028702859688156</v>
       </c>
       <c r="C66">
+        <v>0.9340235835490367</v>
+      </c>
+      <c r="D66">
         <v>1.035039639815993</v>
-      </c>
-      <c r="D66">
-        <v>0.9340235835490367</v>
       </c>
       <c r="E66">
         <v>0.8905964844875613</v>
       </c>
       <c r="F66">
-        <v>0.9529608473677829</v>
+        <v>0.9691234163704958</v>
       </c>
       <c r="G66">
         <v>0.9949945893819959</v>
@@ -2672,16 +2663,16 @@
         <v>0.9884542143273263</v>
       </c>
       <c r="C67">
+        <v>0.9243600805291918</v>
+      </c>
+      <c r="D67">
         <v>0.9920720368014094</v>
-      </c>
-      <c r="D67">
-        <v>0.9243600805291918</v>
       </c>
       <c r="E67">
         <v>0.8604841033522237</v>
       </c>
       <c r="F67">
-        <v>0.9256880433727522</v>
+        <v>0.9365219563763071</v>
       </c>
       <c r="G67">
         <v>0.9779036328883906</v>
@@ -2698,16 +2689,16 @@
         <v>0.9941718740767979</v>
       </c>
       <c r="C68">
+        <v>0.9329306873741733</v>
+      </c>
+      <c r="D68">
         <v>0.9850249584026621</v>
-      </c>
-      <c r="D68">
-        <v>0.9329306873741733</v>
       </c>
       <c r="E68">
         <v>0.8655748727307656</v>
       </c>
       <c r="F68">
-        <v>0.929970296356138</v>
+        <v>0.9383053797206964</v>
       </c>
       <c r="G68">
         <v>0.9752902023052845</v>
@@ -2724,16 +2715,16 @@
         <v>1.00758346234163</v>
       </c>
       <c r="C69">
+        <v>0.9379733486722271</v>
+      </c>
+      <c r="D69">
         <v>1.008515219731819</v>
-      </c>
-      <c r="D69">
-        <v>0.9379733486722271</v>
       </c>
       <c r="E69">
         <v>0.9065411583901642</v>
       </c>
       <c r="F69">
-        <v>0.9514265632830756</v>
+        <v>0.9627132626526104</v>
       </c>
       <c r="G69">
         <v>0.9858805643376666</v>
@@ -2750,16 +2741,16 @@
         <v>1.008155989434298</v>
       </c>
       <c r="C70">
+        <v>0.9307257214073436</v>
+      </c>
+      <c r="D70">
         <v>1.024273270040129</v>
-      </c>
-      <c r="D70">
-        <v>0.9307257214073436</v>
       </c>
       <c r="E70">
         <v>0.9049082700989339</v>
       </c>
       <c r="F70">
-        <v>0.9512721913077242</v>
+        <v>0.96623979908897</v>
       </c>
       <c r="G70">
         <v>0.9857627714928752</v>
@@ -2776,16 +2767,16 @@
         <v>1.00600246583634</v>
       </c>
       <c r="C71">
+        <v>0.9368037580289523</v>
+      </c>
+      <c r="D71">
         <v>1.01840070470784</v>
-      </c>
-      <c r="D71">
-        <v>0.9368037580289523</v>
       </c>
       <c r="E71">
         <v>0.8990010565747767</v>
       </c>
       <c r="F71">
-        <v>0.9499641278117412</v>
+        <v>0.9630196392803633</v>
       </c>
       <c r="G71">
         <v>0.9956777878817863</v>
@@ -2802,16 +2793,16 @@
         <v>1.037399867329547</v>
       </c>
       <c r="C72">
+        <v>0.9533122423545204</v>
+      </c>
+      <c r="D72">
         <v>1.056670255456592</v>
-      </c>
-      <c r="D72">
-        <v>0.9533122423545204</v>
       </c>
       <c r="E72">
         <v>0.9587455575833254</v>
       </c>
       <c r="F72">
-        <v>0.9869709948531327</v>
+        <v>1.003508276949464</v>
       </c>
       <c r="G72">
         <v>1.009132871899496</v>
@@ -2828,16 +2819,16 @@
         <v>1.045566012711545</v>
       </c>
       <c r="C73">
+        <v>0.9631866551624966</v>
+      </c>
+      <c r="D73">
         <v>1.046784770480572</v>
-      </c>
-      <c r="D73">
-        <v>0.9631866551624966</v>
       </c>
       <c r="E73">
         <v>0.9505330900009606</v>
       </c>
       <c r="F73">
-        <v>0.9872271490466008</v>
+        <v>1.000602847497493</v>
       </c>
       <c r="G73">
         <v>1.009648019274051</v>
@@ -2854,16 +2845,16 @@
         <v>1.044965215532113</v>
       </c>
       <c r="C74">
+        <v>0.9699165947656027</v>
+      </c>
+      <c r="D74">
         <v>1.039346187726339</v>
-      </c>
-      <c r="D74">
-        <v>0.9699165947656027</v>
       </c>
       <c r="E74">
         <v>0.9491403323407934</v>
       </c>
       <c r="F74">
-        <v>0.9876217244990475</v>
+        <v>0.9987304593727653</v>
       </c>
       <c r="G74">
         <v>1.008347586267553</v>
@@ -2880,16 +2871,16 @@
         <v>1.04118637015371</v>
       </c>
       <c r="C75">
+        <v>0.9683060109289618</v>
+      </c>
+      <c r="D75">
         <v>1.043652735636684</v>
-      </c>
-      <c r="D75">
-        <v>0.9683060109289618</v>
       </c>
       <c r="E75">
         <v>0.9515416386514265</v>
       </c>
       <c r="F75">
-        <v>0.9879723723458953</v>
+        <v>1.000027848299131</v>
       </c>
       <c r="G75">
         <v>1.012306996423809</v>
@@ -2906,16 +2897,16 @@
         <v>1.053591941239306</v>
       </c>
       <c r="C76">
+        <v>0.9826478765219059</v>
+      </c>
+      <c r="D76">
         <v>1.055006361945777</v>
-      </c>
-      <c r="D76">
-        <v>0.9826478765219059</v>
       </c>
       <c r="E76">
         <v>0.9658053981365864</v>
       </c>
       <c r="F76">
-        <v>1.001451292178766</v>
+        <v>1.013028649846586</v>
       </c>
       <c r="G76">
         <v>1.015022514139068</v>
@@ -2932,16 +2923,16 @@
         <v>1.058537054935256</v>
       </c>
       <c r="C77">
+        <v>0.9628990509059535</v>
+      </c>
+      <c r="D77">
         <v>1.06313007732211</v>
-      </c>
-      <c r="D77">
-        <v>0.9628990509059535</v>
       </c>
       <c r="E77">
         <v>0.9528863701853809</v>
       </c>
       <c r="F77">
-        <v>0.9928926014438927</v>
+        <v>1.008929565670478</v>
       </c>
       <c r="G77">
         <v>1.011864095327393</v>
@@ -2958,16 +2949,16 @@
         <v>1.052217302486828</v>
       </c>
       <c r="C78">
+        <v>0.9706835394497172</v>
+      </c>
+      <c r="D78">
         <v>1.065479103455026</v>
-      </c>
-      <c r="D78">
-        <v>0.9706835394497172</v>
       </c>
       <c r="E78">
         <v>0.9460186341369706</v>
       </c>
       <c r="F78">
-        <v>0.9925201062937222</v>
+        <v>1.007687396534572</v>
       </c>
       <c r="G78">
         <v>1.012434212696184</v>
@@ -2984,16 +2975,16 @@
         <v>1.062599341478172</v>
       </c>
       <c r="C79">
+        <v>0.9790432365065671</v>
+      </c>
+      <c r="D79">
         <v>1.065870607810512</v>
-      </c>
-      <c r="D79">
-        <v>0.9790432365065671</v>
       </c>
       <c r="E79">
         <v>0.9720487945442321</v>
       </c>
       <c r="F79">
-        <v>1.00570026162584</v>
+        <v>1.019592641034471</v>
       </c>
       <c r="G79">
         <v>1.019259915409032</v>
@@ -3010,16 +3001,16 @@
         <v>1.05600165382321</v>
       </c>
       <c r="C80">
+        <v>0.995398331895312</v>
+      </c>
+      <c r="D80">
         <v>1.076049721053147</v>
-      </c>
-      <c r="D80">
-        <v>0.995398331895312</v>
       </c>
       <c r="E80">
         <v>0.9715685332821056</v>
       </c>
       <c r="F80">
-        <v>1.011547799237529</v>
+        <v>1.024452021502782</v>
       </c>
       <c r="G80">
         <v>1.019603870515823</v>
@@ -3036,16 +3027,16 @@
         <v>1.050084530335538</v>
       </c>
       <c r="C81">
+        <v>0.9877288850541657</v>
+      </c>
+      <c r="D81">
         <v>1.073798571009102</v>
-      </c>
-      <c r="D81">
-        <v>0.9877288850541657</v>
       </c>
       <c r="E81">
         <v>0.9920756891749113</v>
       </c>
       <c r="F81">
-        <v>1.014395636724184</v>
+        <v>1.028166786476974</v>
       </c>
       <c r="G81">
         <v>1.018626975189686</v>
@@ -3062,16 +3053,16 @@
         <v>1.061676769636872</v>
       </c>
       <c r="C82">
+        <v>0.9597162304668776</v>
+      </c>
+      <c r="D82">
         <v>1.10061661935989</v>
-      </c>
-      <c r="D82">
-        <v>0.9597162304668776</v>
       </c>
       <c r="E82">
         <v>0.9846316396119489</v>
       </c>
       <c r="F82">
-        <v>1.009224673255462</v>
+        <v>1.031768735478344</v>
       </c>
       <c r="G82">
         <v>1.01919866312974</v>
@@ -3088,16 +3079,16 @@
         <v>1.07032218784006</v>
       </c>
       <c r="C83">
+        <v>0.9463522193461796</v>
+      </c>
+      <c r="D83">
         <v>1.129587941665851</v>
-      </c>
-      <c r="D83">
-        <v>0.9463522193461796</v>
       </c>
       <c r="E83">
         <v>0.9554317548746519</v>
       </c>
       <c r="F83">
-        <v>1.001573433508879</v>
+        <v>1.030891149080027</v>
       </c>
       <c r="G83">
         <v>1.012145227583629</v>
@@ -3114,16 +3105,16 @@
         <v>1.059070970919242</v>
       </c>
       <c r="C84">
+        <v>0.9288467069312627</v>
+      </c>
+      <c r="D84">
         <v>1.185181560144857</v>
-      </c>
-      <c r="D84">
-        <v>0.9288467069312627</v>
       </c>
       <c r="E84">
         <v>0.9644126404764194</v>
       </c>
       <c r="F84">
-        <v>1.006298514925432</v>
+        <v>1.047312091439607</v>
       </c>
       <c r="G84">
         <v>1.017100379921189</v>
@@ -3140,16 +3131,16 @@
         <v>1.034243889231045</v>
       </c>
       <c r="C85">
+        <v>0.9523727351164799</v>
+      </c>
+      <c r="D85">
         <v>1.136341391797984</v>
-      </c>
-      <c r="D85">
-        <v>0.9523727351164799</v>
       </c>
       <c r="E85">
         <v>0.9444817980981655</v>
       </c>
       <c r="F85">
-        <v>0.9949614937357678</v>
+        <v>1.024396478804809</v>
       </c>
       <c r="G85">
         <v>1.013967090249737</v>
@@ -3166,16 +3157,16 @@
         <v>1.042232756646698</v>
       </c>
       <c r="C86">
+        <v>0.9638002109097882</v>
+      </c>
+      <c r="D86">
         <v>1.141920328863659</v>
-      </c>
-      <c r="D86">
-        <v>0.9638002109097882</v>
       </c>
       <c r="E86">
         <v>0.9481798098165403</v>
       </c>
       <c r="F86">
-        <v>1.002259431376449</v>
+        <v>1.030758650249068</v>
       </c>
       <c r="G86">
         <v>1.022763859898761</v>
@@ -3192,16 +3183,16 @@
         <v>1.01493366176604</v>
       </c>
       <c r="C87">
+        <v>0.9615952449429586</v>
+      </c>
+      <c r="D87">
         <v>1.084662816873838</v>
-      </c>
-      <c r="D87">
-        <v>0.9615952449429586</v>
       </c>
       <c r="E87">
         <v>0.9260877917587168</v>
       </c>
       <c r="F87">
-        <v>0.9798668034803322</v>
+        <v>0.9995576149892729</v>
       </c>
       <c r="G87">
         <v>1.011295548529867</v>
@@ -3218,16 +3209,16 @@
         <v>1.029181924300851</v>
       </c>
       <c r="C88">
+        <v>0.9779311667146007</v>
+      </c>
+      <c r="D88">
         <v>1.089850249584027</v>
-      </c>
-      <c r="D88">
-        <v>0.9779311667146007</v>
       </c>
       <c r="E88">
         <v>0.9557679377581405</v>
       </c>
       <c r="F88">
-        <v>0.9983561740364338</v>
+        <v>1.016263227295542</v>
       </c>
       <c r="G88">
         <v>1.024923395386604</v>
@@ -3244,16 +3235,16 @@
         <v>1.056542139941927</v>
       </c>
       <c r="C89">
+        <v>0.998868756590931</v>
+      </c>
+      <c r="D89">
         <v>1.121757854556132</v>
-      </c>
-      <c r="D89">
-        <v>0.998868756590931</v>
       </c>
       <c r="E89">
         <v>1.002449332436846</v>
       </c>
       <c r="F89">
-        <v>1.030745968443836</v>
+        <v>1.050408224118268</v>
       </c>
       <c r="G89">
         <v>1.033143765381782</v>
@@ -3270,16 +3261,16 @@
         <v>1.062286982467133</v>
       </c>
       <c r="C90">
+        <v>0.9968171795609243</v>
+      </c>
+      <c r="D90">
         <v>1.136047763531369</v>
-      </c>
-      <c r="D90">
-        <v>0.9968171795609243</v>
       </c>
       <c r="E90">
         <v>1.003361828834886</v>
       </c>
       <c r="F90">
-        <v>1.033775979590363</v>
+        <v>1.056052873025634</v>
       </c>
       <c r="G90">
         <v>1.036514211314081</v>
@@ -3296,16 +3287,16 @@
         <v>1.063405200890892</v>
       </c>
       <c r="C91">
+        <v>0.9916211293260475</v>
+      </c>
+      <c r="D91">
         <v>1.142311833219144</v>
-      </c>
-      <c r="D91">
-        <v>0.9916211293260475</v>
       </c>
       <c r="E91">
         <v>1.040149841513784</v>
       </c>
       <c r="F91">
-        <v>1.045456316175851</v>
+        <v>1.069566828798746</v>
       </c>
       <c r="G91">
         <v>1.034125372421711</v>
@@ -3322,16 +3313,16 @@
         <v>1.046147145755339</v>
       </c>
       <c r="C92">
+        <v>1.00274182724571</v>
+      </c>
+      <c r="D92">
         <v>1.107957326025252</v>
-      </c>
-      <c r="D92">
-        <v>1.00274182724571</v>
       </c>
       <c r="E92">
         <v>1.044616271251561</v>
       </c>
       <c r="F92">
-        <v>1.0418259327068</v>
+        <v>1.058660412511527</v>
       </c>
       <c r="G92">
         <v>1.028521574152166</v>
@@ -3348,16 +3339,16 @@
         <v>1.037479217900415</v>
       </c>
       <c r="C93">
+        <v>0.9942095676349344</v>
+      </c>
+      <c r="D93">
         <v>1.114221395713027</v>
-      </c>
-      <c r="D93">
-        <v>0.9942095676349344</v>
       </c>
       <c r="E93">
         <v>1.040437998271059</v>
       </c>
       <c r="F93">
-        <v>1.037222801063263</v>
+        <v>1.056424693555758</v>
       </c>
       <c r="G93">
         <v>1.025246933066964</v>
@@ -3374,16 +3365,16 @@
         <v>1.043417971937289</v>
       </c>
       <c r="C94">
+        <v>1.001994056178698</v>
+      </c>
+      <c r="D94">
         <v>1.106195556425565</v>
-      </c>
-      <c r="D94">
-        <v>1.001994056178698</v>
       </c>
       <c r="E94">
         <v>1.046825473057343</v>
       </c>
       <c r="F94">
-        <v>1.041544744469579</v>
+        <v>1.058216984509078</v>
       </c>
       <c r="G94">
         <v>1.027800681942043</v>
@@ -3400,16 +3391,16 @@
         <v>1.069950512542225</v>
       </c>
       <c r="C95">
+        <v>1.034550858019365</v>
+      </c>
+      <c r="D95">
         <v>1.115493784868357</v>
-      </c>
-      <c r="D95">
-        <v>1.034550858019365</v>
       </c>
       <c r="E95">
         <v>1.060320814523101</v>
       </c>
       <c r="F95">
-        <v>1.062833182498813</v>
+        <v>1.075784050794651</v>
       </c>
       <c r="G95">
         <v>1.0396663478407</v>
@@ -3426,16 +3417,16 @@
         <v>1.083262947294888</v>
       </c>
       <c r="C96">
+        <v>1.029278113316077</v>
+      </c>
+      <c r="D96">
         <v>1.125477145933248</v>
-      </c>
-      <c r="D96">
-        <v>1.029278113316077</v>
       </c>
       <c r="E96">
         <v>1.051195850542695</v>
       </c>
       <c r="F96">
-        <v>1.062042223922178</v>
+        <v>1.077434069140926</v>
       </c>
       <c r="G96">
         <v>1.041007615700059</v>
@@ -3452,16 +3443,16 @@
         <v>1.097915064907148</v>
       </c>
       <c r="C97">
+        <v>1.030524398427763</v>
+      </c>
+      <c r="D97">
         <v>1.125672898110991</v>
-      </c>
-      <c r="D97">
-        <v>1.030524398427763</v>
       </c>
       <c r="E97">
         <v>1.054605705503794</v>
       </c>
       <c r="F97">
-        <v>1.066102888010498</v>
+        <v>1.081326647959814</v>
       </c>
       <c r="G97">
         <v>1.049991283329486</v>
@@ -3478,16 +3469,16 @@
         <v>1.09467263401467</v>
       </c>
       <c r="C98">
+        <v>1.02354520180232</v>
+      </c>
+      <c r="D98">
         <v>1.142996965841245</v>
-      </c>
-      <c r="D98">
-        <v>1.02354520180232</v>
       </c>
       <c r="E98">
         <v>1.100230525405821</v>
       </c>
       <c r="F98">
-        <v>1.081249821954192</v>
+        <v>1.10036210420042</v>
       </c>
       <c r="G98">
         <v>1.047283618470546</v>
@@ -3504,16 +3495,16 @@
         <v>1.105601775528016</v>
       </c>
       <c r="C99">
+        <v>1.024292972869332</v>
+      </c>
+      <c r="D99">
         <v>1.174415190368993</v>
-      </c>
-      <c r="D99">
-        <v>1.024292972869332</v>
       </c>
       <c r="E99">
         <v>1.15565267505523</v>
       </c>
       <c r="F99">
-        <v>1.106984948017597</v>
+        <v>1.131004502817543</v>
       </c>
       <c r="G99">
         <v>1.0568358328975</v>
@@ -3530,16 +3521,16 @@
         <v>1.138931189914788</v>
       </c>
       <c r="C100">
+        <v>1.031118780557952</v>
+      </c>
+      <c r="D100">
         <v>1.176079083879808</v>
-      </c>
-      <c r="D100">
-        <v>1.031118780557952</v>
       </c>
       <c r="E100">
         <v>1.144894822783594</v>
       </c>
       <c r="F100">
-        <v>1.111636235647792</v>
+        <v>1.134829884179289</v>
       </c>
       <c r="G100">
         <v>1.058527338148705</v>
@@ -3556,16 +3547,16 @@
         <v>1.139265433952078</v>
       </c>
       <c r="C101">
+        <v>1.022203048605119</v>
+      </c>
+      <c r="D101">
         <v>1.15914652050504</v>
-      </c>
-      <c r="D101">
-        <v>1.022203048605119</v>
       </c>
       <c r="E101">
         <v>1.139131687638075</v>
       </c>
       <c r="F101">
-        <v>1.103970495217964</v>
+        <v>1.125881450721952</v>
       </c>
       <c r="G101">
         <v>1.049366195966459</v>
@@ -3582,16 +3573,16 @@
         <v>1.123094689845917</v>
       </c>
       <c r="C102">
+        <v>1.024235452018023</v>
+      </c>
+      <c r="D102">
         <v>1.159440148771655</v>
-      </c>
-      <c r="D102">
-        <v>1.024235452018023</v>
       </c>
       <c r="E102">
         <v>1.133560656997407</v>
       </c>
       <c r="F102">
-        <v>1.100103638540079</v>
+        <v>1.121736390020661</v>
       </c>
       <c r="G102">
         <v>1.047214513334935</v>
@@ -3608,16 +3599,16 @@
         <v>1.133713855178777</v>
       </c>
       <c r="C103">
+        <v>1.033649698015531</v>
+      </c>
+      <c r="D103">
         <v>1.15581873348341</v>
-      </c>
-      <c r="D103">
-        <v>1.033649698015531</v>
       </c>
       <c r="E103">
         <v>1.162376332725003</v>
       </c>
       <c r="F103">
-        <v>1.113909130216948</v>
+        <v>1.133456175891808</v>
       </c>
       <c r="G103">
         <v>1.051192770346358</v>
@@ -3634,16 +3625,16 @@
         <v>1.137965287572252</v>
       </c>
       <c r="C104">
+        <v>1.02902885629374</v>
+      </c>
+      <c r="D104">
         <v>1.150533424684349</v>
-      </c>
-      <c r="D104">
-        <v>1.02902885629374</v>
       </c>
       <c r="E104">
         <v>1.137114590337144</v>
       </c>
       <c r="F104">
-        <v>1.103872118471814</v>
+        <v>1.123312849414311</v>
       </c>
       <c r="G104">
         <v>1.055659475020849</v>
@@ -3660,16 +3651,16 @@
         <v>1.118663666058374</v>
       </c>
       <c r="C105">
+        <v>0.9966637906241014</v>
+      </c>
+      <c r="D105">
         <v>1.124009004600176</v>
-      </c>
-      <c r="D105">
-        <v>0.9966637906241014</v>
       </c>
       <c r="E105">
         <v>1.128710018249928</v>
       </c>
       <c r="F105">
-        <v>1.082627710940383</v>
+        <v>1.103002945176555</v>
       </c>
       <c r="G105">
         <v>1.049857784772055</v>
@@ -3686,16 +3677,16 @@
         <v>1.134439161038213</v>
       </c>
       <c r="C106">
+        <v>1.001879014476081</v>
+      </c>
+      <c r="D106">
         <v>1.12753254379955</v>
-      </c>
-      <c r="D106">
-        <v>1.001879014476081</v>
       </c>
       <c r="E106">
         <v>1.127413312842186</v>
       </c>
       <c r="F106">
-        <v>1.087201657837448</v>
+        <v>1.107306222529203</v>
       </c>
       <c r="G106">
         <v>1.051167641206136</v>
@@ -3712,16 +3703,16 @@
         <v>1.146010625758602</v>
       </c>
       <c r="C107">
+        <v>1.008052919183204</v>
+      </c>
+      <c r="D107">
         <v>1.132719976509739</v>
-      </c>
-      <c r="D107">
-        <v>1.008052919183204</v>
       </c>
       <c r="E107">
         <v>1.169964460666603</v>
       </c>
       <c r="F107">
-        <v>1.106129937736054</v>
+        <v>1.1260766669083</v>
       </c>
       <c r="G107">
         <v>1.062591976579641</v>
@@ -3738,16 +3729,16 @@
         <v>1.136699426191269</v>
       </c>
       <c r="C108">
+        <v>0.9877480586712685</v>
+      </c>
+      <c r="D108">
         <v>1.133600861309582</v>
-      </c>
-      <c r="D108">
-        <v>0.9877480586712685</v>
       </c>
       <c r="E108">
         <v>1.182163096724618</v>
       </c>
       <c r="F108">
-        <v>1.102021730155787</v>
+        <v>1.125358178577918</v>
       </c>
       <c r="G108">
         <v>1.056353667519487</v>
@@ -3764,16 +3755,16 @@
         <v>1.123101306249202</v>
       </c>
       <c r="C109">
+        <v>0.9800977854472247</v>
+      </c>
+      <c r="D109">
         <v>1.096701575805031</v>
-      </c>
-      <c r="D109">
-        <v>0.9800977854472247</v>
       </c>
       <c r="E109">
         <v>1.177408510229565</v>
       </c>
       <c r="F109">
-        <v>1.08934356752256</v>
+        <v>1.108000173979809</v>
       </c>
       <c r="G109">
         <v>1.046575290830534</v>
@@ -3790,16 +3781,16 @@
         <v>1.090305136952376</v>
       </c>
       <c r="C110">
+        <v>0.972313296903461</v>
+      </c>
+      <c r="D110">
         <v>1.050308309679945</v>
-      </c>
-      <c r="D110">
-        <v>0.972313296903461</v>
       </c>
       <c r="E110">
         <v>1.10147920468735</v>
       </c>
       <c r="F110">
-        <v>1.048255811452462</v>
+        <v>1.0607350134967</v>
       </c>
       <c r="G110">
         <v>1.031282638434078</v>
@@ -3816,16 +3807,16 @@
         <v>1.092001712306663</v>
       </c>
       <c r="C111">
+        <v>0.9761288467069313</v>
+      </c>
+      <c r="D111">
         <v>1.054810609768034</v>
-      </c>
-      <c r="D111">
-        <v>0.9761288467069313</v>
       </c>
       <c r="E111">
         <v>1.133128421861493</v>
       </c>
       <c r="F111">
-        <v>1.061012993380278</v>
+        <v>1.073602075470055</v>
       </c>
       <c r="G111">
         <v>1.03911664789834</v>
@@ -3842,16 +3833,16 @@
         <v>1.088202832644187</v>
       </c>
       <c r="C112">
+        <v>0.9630524398427764</v>
+      </c>
+      <c r="D112">
         <v>1.073504942742488</v>
-      </c>
-      <c r="D112">
-        <v>0.9630524398427764</v>
       </c>
       <c r="E112">
         <v>1.187926231870138</v>
       </c>
       <c r="F112">
-        <v>1.077313283480996</v>
+        <v>1.09498568394495</v>
       </c>
       <c r="G112">
         <v>1.045648653784841</v>
@@ -3868,16 +3859,16 @@
         <v>1.09055551923474</v>
       </c>
       <c r="C113">
+        <v>0.9528137283098458</v>
+      </c>
+      <c r="D113">
         <v>1.068121757854556</v>
-      </c>
-      <c r="D113">
-        <v>0.9528137283098458</v>
       </c>
       <c r="E113">
         <v>1.192968975122467</v>
       </c>
       <c r="F113">
-        <v>1.075083429237844</v>
+        <v>1.093532713964997</v>
       </c>
       <c r="G113">
         <v>1.053410416970965</v>
@@ -3894,16 +3885,16 @@
         <v>1.101601974667874</v>
       </c>
       <c r="C114">
+        <v>0.9582782091841626</v>
+      </c>
+      <c r="D114">
         <v>1.073896447097974</v>
-      </c>
-      <c r="D114">
-        <v>0.9582782091841626</v>
       </c>
       <c r="E114">
         <v>1.193593314763231</v>
       </c>
       <c r="F114">
-        <v>1.079952334602834</v>
+        <v>1.098451252669044</v>
       </c>
       <c r="G114">
         <v>1.058532049862497</v>
@@ -3920,16 +3911,16 @@
         <v>1.1160717247728</v>
       </c>
       <c r="C115">
+        <v>0.9451442814686992</v>
+      </c>
+      <c r="D115">
         <v>1.092003523539199</v>
-      </c>
-      <c r="D115">
-        <v>0.9451442814686992</v>
       </c>
       <c r="E115">
         <v>1.227211603112093</v>
       </c>
       <c r="F115">
-        <v>1.092250234124701</v>
+        <v>1.115747712855981</v>
       </c>
       <c r="G115">
         <v>1.066410035322148</v>
@@ -3946,16 +3937,16 @@
         <v>1.118823361974031</v>
       </c>
       <c r="C116">
+        <v>0.9467932125395456</v>
+      </c>
+      <c r="D116">
         <v>1.084956445140452</v>
-      </c>
-      <c r="D116">
-        <v>0.9467932125395456</v>
       </c>
       <c r="E116">
         <v>1.212563634617232</v>
       </c>
       <c r="F116">
-        <v>1.087230326771199</v>
+        <v>1.109336443987344</v>
       </c>
       <c r="G116">
         <v>1.060900471328436</v>
@@ -3972,16 +3963,16 @@
         <v>1.151759192902441</v>
       </c>
       <c r="C117">
+        <v>0.9647397181478287</v>
+      </c>
+      <c r="D117">
         <v>1.113829891357541</v>
-      </c>
-      <c r="D117">
-        <v>0.9647397181478287</v>
       </c>
       <c r="E117">
         <v>1.235616175199308</v>
       </c>
       <c r="F117">
-        <v>1.111267589128752</v>
+        <v>1.135122016842306</v>
       </c>
       <c r="G117">
         <v>1.070094595507224</v>
@@ -3995,25 +3986,259 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.158596065849592</v>
+        <v>1.158595950178206</v>
       </c>
       <c r="C118">
-        <v>1.113829891357541</v>
+        <v>0.979925222893299</v>
       </c>
       <c r="D118">
-        <v>0.9647397181478287</v>
+        <v>1.10453166291475</v>
       </c>
       <c r="E118">
-        <v>1.235616175199308</v>
+        <v>1.267217366247239</v>
       </c>
       <c r="F118">
-        <v>1.112429857529768</v>
+        <v>1.146225779045612</v>
       </c>
       <c r="G118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="H118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.157231721850478</v>
+      </c>
+      <c r="C119">
+        <v>0.9655833573003547</v>
+      </c>
+      <c r="D119">
+        <v>1.088871488695312</v>
+      </c>
+      <c r="E119">
+        <v>1.270194986072424</v>
+      </c>
+      <c r="F119">
+        <v>1.139370500128994</v>
+      </c>
+      <c r="G119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="H119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.164615812991016</v>
+      </c>
+      <c r="C120">
+        <v>0.9664269964528809</v>
+      </c>
+      <c r="D120">
+        <v>1.108055202114124</v>
+      </c>
+      <c r="E120">
+        <v>1.303813274421285</v>
+      </c>
+      <c r="F120">
+        <v>1.158193874862147</v>
+      </c>
+      <c r="G120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="H120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.142112314972629</v>
+      </c>
+      <c r="C121">
+        <v>0.9736362764835588</v>
+      </c>
+      <c r="D121">
+        <v>1.087305471273368</v>
+      </c>
+      <c r="E121">
+        <v>1.286667947363366</v>
+      </c>
+      <c r="F121">
+        <v>1.143088488697674</v>
+      </c>
+      <c r="G121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="H121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.121508187382649</v>
+      </c>
+      <c r="C122">
+        <v>0.9452593231713163</v>
+      </c>
+      <c r="D122">
+        <v>1.101399628070862</v>
+      </c>
+      <c r="E122">
+        <v>1.282105465373163</v>
+      </c>
+      <c r="F122">
+        <v>1.137907157630702</v>
+      </c>
+      <c r="G122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="H122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.141999211491295</v>
+      </c>
+      <c r="C123">
+        <v>0.9396606269772794</v>
+      </c>
+      <c r="D123">
+        <v>1.152980326906137</v>
+      </c>
+      <c r="E123">
+        <v>1.317500720391893</v>
+      </c>
+      <c r="F123">
+        <v>1.169140918148008</v>
+      </c>
+      <c r="G123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="H123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.172960740067379</v>
+      </c>
+      <c r="C124">
+        <v>0.934828875467357</v>
+      </c>
+      <c r="D124">
+        <v>1.164333953215229</v>
+      </c>
+      <c r="E124">
+        <v>1.319085582556911</v>
+      </c>
+      <c r="F124">
+        <v>1.177852681445712</v>
+      </c>
+      <c r="G124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="H124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.189142449820943</v>
+      </c>
+      <c r="C125">
+        <v>0.9378966542038157</v>
+      </c>
+      <c r="D125">
+        <v>1.201428990897524</v>
+      </c>
+      <c r="E125">
+        <v>1.392997790798194</v>
+      </c>
+      <c r="F125">
+        <v>1.217757485643796</v>
+      </c>
+      <c r="G125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="H125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.186521636957397</v>
+      </c>
+      <c r="C126">
+        <v>0.9208704822164703</v>
+      </c>
+      <c r="D126">
+        <v>1.205539786630126</v>
+      </c>
+      <c r="E126">
+        <v>1.415810200749208</v>
+      </c>
+      <c r="F126">
+        <v>1.223302156094738</v>
+      </c>
+      <c r="G126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="H126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.211938249432019</v>
+      </c>
+      <c r="C127">
+        <v>0.9037676157607133</v>
+      </c>
+      <c r="D127">
+        <v>1.27415092492904</v>
+      </c>
+      <c r="E127">
+        <v>1.439919316107963</v>
+      </c>
+      <c r="F127">
+        <v>1.255313176624976</v>
+      </c>
+      <c r="G127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="H127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4125,18 +4350,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -4168,172 +4393,157 @@
       <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2">
         <v>0.17</v>
       </c>
       <c r="J2">
-        <v>24.53</v>
+        <v>4.356100082397461</v>
       </c>
       <c r="K2">
-        <v>4.14</v>
+        <v>25.67799949645996</v>
       </c>
       <c r="L2">
-        <v>11.05</v>
-      </c>
-      <c r="M2">
-        <v>13.69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.6868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="J3">
-        <v>39.53</v>
+        <v>8.680999755859375</v>
       </c>
       <c r="K3">
-        <v>3.11</v>
+        <v>37.81980133056641</v>
       </c>
       <c r="L3">
-        <v>16.99</v>
-      </c>
-      <c r="M3">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>21.132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="J4">
-        <v>41.16</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K4">
-        <v>9.26</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L4">
-        <v>13.51</v>
-      </c>
-      <c r="M4">
-        <v>21.13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5">
         <v>0.33</v>
       </c>
       <c r="J5">
-        <v>133.48</v>
+        <v>10.4798002243042</v>
       </c>
       <c r="K5">
-        <v>9.199999999999999</v>
+        <v>152.8901977539062</v>
       </c>
       <c r="L5">
-        <v>4.83</v>
-      </c>
-      <c r="M5">
-        <v>38.77</v>
+        <v>38.7678</v>
       </c>
     </row>
   </sheetData>
@@ -4351,19 +4561,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4371,10 +4581,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>111</v>
@@ -4391,10 +4601,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>112</v>
@@ -4411,10 +4621,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
         <v>113</v>
@@ -4431,10 +4641,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>114</v>
@@ -4451,10 +4661,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
         <v>115</v>
@@ -4471,10 +4681,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>116</v>
@@ -4491,10 +4701,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
         <v>117</v>
@@ -4511,10 +4721,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
         <v>118</v>
@@ -4531,10 +4741,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
         <v>119</v>
@@ -4551,10 +4761,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
         <v>120</v>
@@ -4571,10 +4781,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
         <v>121</v>
@@ -4591,10 +4801,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
         <v>122</v>
@@ -4611,10 +4821,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
         <v>123</v>
@@ -4631,10 +4841,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
         <v>124</v>
@@ -4651,7 +4861,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
         <v>105</v>
@@ -4671,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
         <v>106</v>
@@ -4691,7 +4901,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
         <v>107</v>
@@ -4700,7 +4910,7 @@
         <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F18" t="s">
         <v>166</v>
@@ -4711,7 +4921,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
         <v>108</v>
@@ -4720,7 +4930,7 @@
         <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F19" t="s">
         <v>167</v>
@@ -4731,7 +4941,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
         <v>109</v>
@@ -4740,7 +4950,7 @@
         <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F20" t="s">
         <v>168</v>
@@ -4751,7 +4961,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
         <v>110</v>
@@ -4773,7 +4983,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4789,90 +4999,79 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
